--- a/data/datarecap.xlsx
+++ b/data/datarecap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
   <si>
-    <t>sous agrégat</t>
-  </si>
-  <si>
     <t>PPI</t>
   </si>
   <si>
@@ -79,6 +76,132 @@
   </si>
   <si>
     <t>taux directeurs</t>
+  </si>
+  <si>
+    <t>Pays :</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Espagne</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Irlande</t>
+  </si>
+  <si>
+    <t>Autriche</t>
+  </si>
+  <si>
+    <t>Pays-Bas</t>
+  </si>
+  <si>
+    <t>Finlande</t>
+  </si>
+  <si>
+    <t>Grèce</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>UKI</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Indus good exc. Energy</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Processed food exc. Alcohol and tobacco</t>
+  </si>
+  <si>
+    <t>Unprocessed food</t>
+  </si>
+  <si>
+    <t>ICP.M.COUNTRY.N.000000.4.INX</t>
+  </si>
+  <si>
+    <t>ICP.M.COUNTRY.N.FDPXAT.4.INX</t>
+  </si>
+  <si>
+    <t>ICP.M.COUNTRY.N.FOODUN.4.INX</t>
+  </si>
+  <si>
+    <t>ICP.M.COUNTRY.N.IGXE00.4.INX</t>
+  </si>
+  <si>
+    <t>ICP.M.COUNTRY.N.NRGY00.4.INX</t>
+  </si>
+  <si>
+    <t>ICP.M.COUNTRY.N.SERV00.4.INX</t>
   </si>
 </sst>
 </file>
@@ -127,8 +250,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -138,9 +295,43 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B26"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I9" sqref="I9:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -482,131 +673,275 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A28:A31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/datarecap.xlsx
+++ b/data/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -63,9 +63,6 @@
     <t>taux intérêt</t>
   </si>
   <si>
-    <t>taux de change</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monetary </t>
   </si>
   <si>
@@ -202,6 +199,21 @@
   </si>
   <si>
     <t>ICP.M.COUNTRY.N.SERV00.4.INX</t>
+  </si>
+  <si>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>Euro Area, Euro</t>
+  </si>
+  <si>
+    <t>Nominal Effective Exchange Rate, Consumer Price Index</t>
+  </si>
+  <si>
+    <t>NEER</t>
+  </si>
+  <si>
+    <t>taux de change EUR/USD</t>
   </si>
 </sst>
 </file>
@@ -250,8 +262,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,7 +311,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -314,6 +330,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -332,6 +350,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M31"/>
+  <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:M23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -681,52 +701,52 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -738,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -753,18 +773,18 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="L11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -775,10 +795,10 @@
         <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -787,36 +807,36 @@
         <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="L16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -827,10 +847,10 @@
         <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -839,10 +859,10 @@
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -851,36 +871,36 @@
         <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1"/>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="L22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -891,10 +911,10 @@
         <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -906,42 +926,66 @@
     <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1"/>
-      <c r="B29" t="s">
-        <v>17</v>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/datarecap.xlsx
+++ b/data/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -214,13 +214,31 @@
   </si>
   <si>
     <t>taux de change EUR/USD</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autre </t>
+  </si>
+  <si>
+    <t>unemployment rate</t>
+  </si>
+  <si>
+    <t>ECB</t>
+  </si>
+  <si>
+    <t>EXR.M.USD.EUR.SP00.A</t>
+  </si>
+  <si>
+    <t>STS.M.COUNTRY.S.UNEH.RTT000.4.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +262,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,14 +329,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -332,6 +364,9 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -352,6 +387,9 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M32"/>
+  <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -694,7 +732,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -703,57 +741,75 @@
       <c r="C2" t="s">
         <v>54</v>
       </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
       </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -768,7 +824,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -788,7 +844,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
@@ -802,7 +858,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -814,7 +870,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="L14" t="s">
         <v>29</v>
       </c>
@@ -823,7 +879,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="L15" t="s">
         <v>19</v>
       </c>
@@ -840,7 +896,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -854,7 +910,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -866,7 +922,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -878,7 +934,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="L20" t="s">
         <v>24</v>
       </c>
@@ -887,7 +943,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="L21" t="s">
         <v>28</v>
       </c>
@@ -904,7 +960,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
@@ -918,13 +974,13 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>63</v>
       </c>
@@ -934,21 +990,30 @@
       <c r="D25" t="s">
         <v>62</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>64</v>
       </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" t="s">
@@ -960,9 +1025,12 @@
       <c r="D29" t="s">
         <v>61</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -971,13 +1039,27 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/data/datarecap.xlsx
+++ b/data/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>STS.M.COUNTRY.S.UNEH.RTT000.4.000</t>
+  </si>
+  <si>
+    <t>Commodity Prices, Crude Oil (Petroleum)</t>
   </si>
 </sst>
 </file>
@@ -287,8 +290,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -343,7 +348,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -367,6 +372,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -390,6 +396,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,7 +729,7 @@
   <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -966,6 +973,12 @@
       <c r="B23" t="s">
         <v>12</v>
       </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
       <c r="L23" t="s">
         <v>33</v>
       </c>
@@ -1036,6 +1049,12 @@
       </c>
       <c r="C30" t="s">
         <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:13">

--- a/data/datarecap.xlsx
+++ b/data/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -235,6 +235,33 @@
   </si>
   <si>
     <t>Commodity Prices, Crude Oil (Petroleum)</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short term rates are usually either the three month interbank offer rate attaching to loans given and taken amongst banks for any excess or shortage of liquidity over several months or the rate associated with Treasury bills, Certificates of Deposit or comparable instruments, each of three month maturity. For Euro Area countries the 3-month "European Interbank Offered Rate" is used from the date the country joined the euro. </t>
+  </si>
+  <si>
+    <t>Long term (in most cases 10 year) government bonds are the instrument whose yield is used as the representative ‘interest rate’ for this area. Generally the yield is calculated at the pre-tax level and before deductions for brokerage costs and commissions and is derived from the relationship between the present market value of the bond and that at maturity, taking into account also interest payments paid through to maturity.</t>
+  </si>
+  <si>
+    <t>London Interbank Offer Rate, 3-Month</t>
+  </si>
+  <si>
+    <t>Interest Rates, Monetary Policy-Related Interest Rate (FPOLM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actifs bilan </t>
+  </si>
+  <si>
+    <t>Total Gross Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index </t>
+  </si>
+  <si>
+    <t>productivité</t>
   </si>
 </sst>
 </file>
@@ -290,8 +317,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -348,7 +391,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -373,6 +416,14 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -397,6 +448,14 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -729,7 +788,7 @@
   <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -746,9 +805,12 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -758,9 +820,12 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -770,9 +835,12 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -782,9 +850,12 @@
         <v>49</v>
       </c>
       <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -794,9 +865,12 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -806,9 +880,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -869,6 +946,12 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
       <c r="L13" t="s">
         <v>21</v>
       </c>
@@ -878,6 +961,9 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
       <c r="L14" t="s">
         <v>29</v>
       </c>
@@ -909,6 +995,15 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
       <c r="L17" t="s">
         <v>30</v>
       </c>
@@ -921,6 +1016,15 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -979,6 +1083,9 @@
       <c r="D23" t="s">
         <v>71</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="L23" t="s">
         <v>33</v>
       </c>
@@ -991,6 +1098,15 @@
       <c r="B24" t="s">
         <v>13</v>
       </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2"/>
@@ -1018,6 +1134,9 @@
       <c r="D26" t="s">
         <v>69</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2"/>
@@ -1062,9 +1181,30 @@
       <c r="B31" t="s">
         <v>17</v>
       </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">

--- a/data/datarecap.xlsx
+++ b/data/datarecap.xlsx
@@ -788,13 +788,13 @@
   <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">

--- a/data/datarecap.xlsx
+++ b/data/datarecap.xlsx
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/datarecap.xlsx
+++ b/data/datarecap.xlsx
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
